--- a/biology/Histoire de la zoologie et de la botanique/Johan_Wilhelm_Palmstruch/Johan_Wilhelm_Palmstruch.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Johan_Wilhelm_Palmstruch/Johan_Wilhelm_Palmstruch.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Johan Wilhelm Palmstruch est un militaire, un artiste et un naturaliste suédois, né le 3 mars 1770 à Stockholm et mort le 30 août 1811 à Vänersborg.
 Ce capitaine de cavalerie, surnommé le Sowerby suédois, publie deux vastes ouvrages d’histoire naturelle, Svensk Botanik et Svensk Zoologi. Il apprend le dessin du français Louis-Jean Desprez (1743-1804).
-Souhaitant suivre le type d’ouvrage de Georg Christian von Oeder (1728-1791), Flora Danica, ou de James Sowerby (1757-1822), English Botany. Svensk Botanik (ou Botanique de Suède) commence à paraître en 1802 et comptera, à sa fin en 1843, onze volumes composés de 774 planches coloriées[1] à la main et 23 pages d’index. Il commence cette publication avec l’aide financière de l’Académie royale des sciences de Suède, du graveur Carl Wilhelm Venus (1770-1851) et du naturaliste Conrad Quensel (1767-1806). Le texte est signé par les meilleurs botanistes de l’époque, outre Quensel, il faut citer Elias Magnus Fries (1794-1878), Olof Peter Swartz (1760-1818), Göran Wahlenberg (1780-1851) et Pehr Fredrik Wahlberg (1800-1877). Après la mort de Palmstruch, les dessins sont réalisés par Gustav Johan Billberg (1772-1844), O.P. Swartz, Lars Levi Læstadius (1800-1861) et P.F. Wahlberg.
+Souhaitant suivre le type d’ouvrage de Georg Christian von Oeder (1728-1791), Flora Danica, ou de James Sowerby (1757-1822), English Botany. Svensk Botanik (ou Botanique de Suède) commence à paraître en 1802 et comptera, à sa fin en 1843, onze volumes composés de 774 planches coloriées à la main et 23 pages d’index. Il commence cette publication avec l’aide financière de l’Académie royale des sciences de Suède, du graveur Carl Wilhelm Venus (1770-1851) et du naturaliste Conrad Quensel (1767-1806). Le texte est signé par les meilleurs botanistes de l’époque, outre Quensel, il faut citer Elias Magnus Fries (1794-1878), Olof Peter Swartz (1760-1818), Göran Wahlenberg (1780-1851) et Pehr Fredrik Wahlberg (1800-1877). Après la mort de Palmstruch, les dessins sont réalisés par Gustav Johan Billberg (1772-1844), O.P. Swartz, Lars Levi Læstadius (1800-1861) et P.F. Wahlberg.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Note</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ Palmstruch en signe 455 dessins en couleurs. Ceux-ci sont souvent considérés comme les meilleures illustrations botaniques jamais faites en Suède.
